--- a/data/function.xlsx
+++ b/data/function.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmkang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mystat\excel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8051BE2-7974-4CA8-BBE1-70F77389ADAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11295" windowHeight="4395"/>
+    <workbookView xWindow="-25320" yWindow="330" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="성적표" sheetId="1" r:id="rId1"/>
@@ -19,10 +20,20 @@
     <sheet name="개인정보" sheetId="3" r:id="rId5"/>
     <sheet name="판매정보" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -985,10 +996,6 @@
   </si>
   <si>
     <t>1. 출생년도는 D 열에 있는 앞 4자리 숫자를 가져온다.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 나이는 작년 것이므로 다시 계산한다.</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1783,11 +1790,15 @@
     <t>성적</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>2. 나이는 2019년도 것이므로 다시 계산한다.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm\/dd"/>
@@ -2170,11 +2181,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="1" fillId="5" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2488,10 +2499,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -2536,7 +2547,7 @@
         <v>11</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>12</v>
@@ -2664,7 +2675,7 @@
     </row>
     <row r="11" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2680,7 +2691,7 @@
     </row>
     <row r="12" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2696,7 +2707,7 @@
     </row>
     <row r="13" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2712,7 +2723,7 @@
     </row>
     <row r="14" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2736,10 +2747,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:L154"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -4199,11 +4210,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4918,32 +4929,32 @@
     </row>
     <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="8" t="s">
-        <v>305</v>
+        <v>533</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -4952,7 +4963,7 @@
     </row>
     <row r="37" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
@@ -4960,7 +4971,7 @@
     </row>
     <row r="39" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
@@ -4968,7 +4979,7 @@
     </row>
     <row r="41" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
@@ -4984,7 +4995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:L286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5002,38 +5013,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="B2" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="E4" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="F4" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="H4" s="23" t="s">
         <v>378</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5041,13 +5052,13 @@
         <v>43466</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>382</v>
       </c>
       <c r="F5" s="16">
         <v>55</v>
@@ -5059,7 +5070,7 @@
         <v>52800</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
@@ -5067,13 +5078,13 @@
         <v>43466</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>385</v>
       </c>
       <c r="F6" s="16">
         <v>44</v>
@@ -5084,21 +5095,21 @@
       <c r="H6" s="25">
         <v>68000</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="24">
         <v>43466</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>388</v>
       </c>
       <c r="F7" s="16">
         <v>44</v>
@@ -5110,7 +5121,7 @@
         <v>78200</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
@@ -5118,13 +5129,13 @@
         <v>43466</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>391</v>
       </c>
       <c r="F8" s="16">
         <v>44</v>
@@ -5135,21 +5146,21 @@
       <c r="H8" s="25">
         <v>38400</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="24">
         <v>43466</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="E9" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="F9" s="16">
         <v>44</v>
@@ -5161,7 +5172,7 @@
         <v>62700</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -5169,13 +5180,13 @@
         <v>43466</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>396</v>
       </c>
       <c r="F10" s="16">
         <v>44</v>
@@ -5186,21 +5197,21 @@
       <c r="H10" s="25">
         <v>32000</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="24">
         <v>43467</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="5" t="s">
         <v>398</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>399</v>
       </c>
       <c r="F11" s="16">
         <v>55</v>
@@ -5212,7 +5223,7 @@
         <v>27900</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
@@ -5220,13 +5231,13 @@
         <v>43467</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="F12" s="16">
         <v>55</v>
@@ -5237,21 +5248,21 @@
       <c r="H12" s="25">
         <v>101500</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="24">
         <v>43467</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="F13" s="16">
         <v>44</v>
@@ -5263,7 +5274,7 @@
         <v>49500</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
@@ -5271,13 +5282,13 @@
         <v>43467</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>406</v>
       </c>
       <c r="F14" s="16">
         <v>55</v>
@@ -5288,21 +5299,21 @@
       <c r="H14" s="25">
         <v>87500</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
     </row>
     <row r="15" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="24">
         <v>43467</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>408</v>
       </c>
       <c r="F15" s="16">
         <v>55</v>
@@ -5314,7 +5325,7 @@
         <v>87500</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5322,13 +5333,13 @@
         <v>43468</v>
       </c>
       <c r="C16" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>410</v>
       </c>
       <c r="F16" s="16">
         <v>44</v>
@@ -5340,7 +5351,7 @@
         <v>71400</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K16" s="26">
         <v>44</v>
@@ -5354,13 +5365,13 @@
         <v>43469</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>411</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>412</v>
       </c>
       <c r="F17" s="16">
         <v>55</v>
@@ -5372,7 +5383,7 @@
         <v>62700</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -5382,13 +5393,13 @@
         <v>43469</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>414</v>
       </c>
       <c r="F18" s="16">
         <v>55</v>
@@ -5400,7 +5411,7 @@
         <v>44800</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -5410,13 +5421,13 @@
         <v>43469</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="E19" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>417</v>
       </c>
       <c r="F19" s="16">
         <v>44</v>
@@ -5428,7 +5439,7 @@
         <v>24800</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -5438,13 +5449,13 @@
         <v>43472</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="F20" s="16">
         <v>44</v>
@@ -5456,7 +5467,7 @@
         <v>49500</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -5466,13 +5477,13 @@
         <v>43472</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="F21" s="16">
         <v>44</v>
@@ -5484,7 +5495,7 @@
         <v>52800</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -5494,13 +5505,13 @@
         <v>43472</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="E22" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="F22" s="16">
         <v>44</v>
@@ -5512,7 +5523,7 @@
         <v>32000</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -5522,13 +5533,13 @@
         <v>43472</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>426</v>
       </c>
       <c r="F23" s="16">
         <v>44</v>
@@ -5540,7 +5551,7 @@
         <v>21700</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -5550,13 +5561,13 @@
         <v>43473</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>428</v>
       </c>
       <c r="F24" s="16">
         <v>44</v>
@@ -5568,7 +5579,7 @@
         <v>32000</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -5578,13 +5589,13 @@
         <v>43473</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="E25" s="5" t="s">
         <v>430</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>431</v>
       </c>
       <c r="F25" s="16">
         <v>44</v>
@@ -5596,7 +5607,7 @@
         <v>44800</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -5606,13 +5617,13 @@
         <v>43473</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="F26" s="16">
         <v>44</v>
@@ -5629,13 +5640,13 @@
         <v>43473</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F27" s="16">
         <v>44</v>
@@ -5652,13 +5663,13 @@
         <v>43477</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="F28" s="16">
         <v>55</v>
@@ -5675,13 +5686,13 @@
         <v>43477</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="F29" s="16">
         <v>44</v>
@@ -5698,13 +5709,13 @@
         <v>43477</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="F30" s="16">
         <v>44</v>
@@ -5721,13 +5732,13 @@
         <v>43477</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>441</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>442</v>
       </c>
       <c r="F31" s="16">
         <v>44</v>
@@ -5744,13 +5755,13 @@
         <v>43477</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>444</v>
       </c>
       <c r="F32" s="16">
         <v>44</v>
@@ -5767,13 +5778,13 @@
         <v>43509</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="E33" s="5" t="s">
         <v>430</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>431</v>
       </c>
       <c r="F33" s="16">
         <v>55</v>
@@ -5790,13 +5801,13 @@
         <v>43509</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>445</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>446</v>
       </c>
       <c r="F34" s="16">
         <v>44</v>
@@ -5813,13 +5824,13 @@
         <v>43510</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>447</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>448</v>
       </c>
       <c r="F35" s="16">
         <v>44</v>
@@ -5836,13 +5847,13 @@
         <v>43510</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>449</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>450</v>
       </c>
       <c r="F36" s="16">
         <v>55</v>
@@ -5859,13 +5870,13 @@
         <v>43510</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="D37" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>384</v>
-      </c>
       <c r="E37" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F37" s="16">
         <v>44</v>
@@ -5882,13 +5893,13 @@
         <v>43510</v>
       </c>
       <c r="C38" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="F38" s="16">
         <v>44</v>
@@ -5905,13 +5916,13 @@
         <v>43511</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="F39" s="16">
         <v>55</v>
@@ -5928,13 +5939,13 @@
         <v>43511</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="F40" s="16">
         <v>44</v>
@@ -5951,13 +5962,13 @@
         <v>43511</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>454</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>455</v>
       </c>
       <c r="F41" s="16">
         <v>44</v>
@@ -5974,13 +5985,13 @@
         <v>43513</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>456</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>457</v>
       </c>
       <c r="F42" s="16">
         <v>55</v>
@@ -5997,13 +6008,13 @@
         <v>43513</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>426</v>
       </c>
       <c r="F43" s="16">
         <v>55</v>
@@ -6020,13 +6031,13 @@
         <v>43513</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="F44" s="16">
         <v>55</v>
@@ -6043,13 +6054,13 @@
         <v>43513</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>447</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>448</v>
       </c>
       <c r="F45" s="16">
         <v>44</v>
@@ -6066,13 +6077,13 @@
         <v>43483</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>411</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>412</v>
       </c>
       <c r="F46" s="16">
         <v>44</v>
@@ -6089,13 +6100,13 @@
         <v>43483</v>
       </c>
       <c r="C47" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="F47" s="16">
         <v>55</v>
@@ -6112,13 +6123,13 @@
         <v>43483</v>
       </c>
       <c r="C48" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>458</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>459</v>
       </c>
       <c r="F48" s="16">
         <v>44</v>
@@ -6135,13 +6146,13 @@
         <v>43483</v>
       </c>
       <c r="C49" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>460</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>461</v>
       </c>
       <c r="F49" s="16">
         <v>55</v>
@@ -6158,13 +6169,13 @@
         <v>43484</v>
       </c>
       <c r="C50" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>462</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>463</v>
       </c>
       <c r="F50" s="16">
         <v>44</v>
@@ -6181,13 +6192,13 @@
         <v>43484</v>
       </c>
       <c r="C51" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>464</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>465</v>
       </c>
       <c r="F51" s="16">
         <v>55</v>
@@ -6204,13 +6215,13 @@
         <v>43484</v>
       </c>
       <c r="C52" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>466</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>467</v>
       </c>
       <c r="F52" s="16">
         <v>44</v>
@@ -6227,13 +6238,13 @@
         <v>43484</v>
       </c>
       <c r="C53" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="F53" s="16">
         <v>55</v>
@@ -6250,13 +6261,13 @@
         <v>43484</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>468</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>469</v>
       </c>
       <c r="F54" s="16">
         <v>55</v>
@@ -6273,13 +6284,13 @@
         <v>43484</v>
       </c>
       <c r="C55" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>470</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>471</v>
       </c>
       <c r="F55" s="16">
         <v>44</v>
@@ -6296,13 +6307,13 @@
         <v>43484</v>
       </c>
       <c r="C56" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>472</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>473</v>
       </c>
       <c r="F56" s="16">
         <v>55</v>
@@ -6319,13 +6330,13 @@
         <v>43484</v>
       </c>
       <c r="C57" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>474</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>475</v>
       </c>
       <c r="F57" s="16">
         <v>44</v>
@@ -6342,13 +6353,13 @@
         <v>43485</v>
       </c>
       <c r="C58" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="F58" s="16">
         <v>55</v>
@@ -6365,13 +6376,13 @@
         <v>43485</v>
       </c>
       <c r="C59" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>472</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>473</v>
       </c>
       <c r="F59" s="16">
         <v>55</v>
@@ -6388,13 +6399,13 @@
         <v>43485</v>
       </c>
       <c r="C60" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>476</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>477</v>
       </c>
       <c r="F60" s="16">
         <v>44</v>
@@ -6411,13 +6422,13 @@
         <v>43485</v>
       </c>
       <c r="C61" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>476</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>477</v>
       </c>
       <c r="F61" s="16">
         <v>44</v>
@@ -6434,13 +6445,13 @@
         <v>43485</v>
       </c>
       <c r="C62" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>478</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>479</v>
       </c>
       <c r="F62" s="16">
         <v>44</v>
@@ -6457,13 +6468,13 @@
         <v>43485</v>
       </c>
       <c r="C63" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>480</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>481</v>
       </c>
       <c r="F63" s="16">
         <v>44</v>
@@ -6480,13 +6491,13 @@
         <v>43486</v>
       </c>
       <c r="C64" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>482</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>483</v>
       </c>
       <c r="F64" s="16">
         <v>44</v>
@@ -6503,13 +6514,13 @@
         <v>43486</v>
       </c>
       <c r="C65" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="F65" s="16">
         <v>44</v>
@@ -6526,13 +6537,13 @@
         <v>43486</v>
       </c>
       <c r="C66" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>484</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>485</v>
       </c>
       <c r="F66" s="16">
         <v>55</v>
@@ -6549,13 +6560,13 @@
         <v>43486</v>
       </c>
       <c r="C67" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>486</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>487</v>
       </c>
       <c r="F67" s="16">
         <v>44</v>
@@ -6572,13 +6583,13 @@
         <v>43486</v>
       </c>
       <c r="C68" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="F68" s="16">
         <v>44</v>
@@ -6595,13 +6606,13 @@
         <v>43486</v>
       </c>
       <c r="C69" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>488</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>489</v>
       </c>
       <c r="F69" s="16">
         <v>55</v>
@@ -6618,13 +6629,13 @@
         <v>43486</v>
       </c>
       <c r="C70" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>466</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>467</v>
       </c>
       <c r="F70" s="16">
         <v>55</v>
@@ -6641,13 +6652,13 @@
         <v>43486</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F71" s="16">
         <v>55</v>
@@ -6664,13 +6675,13 @@
         <v>43487</v>
       </c>
       <c r="C72" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>482</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>483</v>
       </c>
       <c r="F72" s="16">
         <v>44</v>
@@ -6687,13 +6698,13 @@
         <v>43487</v>
       </c>
       <c r="C73" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>462</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>463</v>
       </c>
       <c r="F73" s="16">
         <v>44</v>
@@ -6710,13 +6721,13 @@
         <v>43487</v>
       </c>
       <c r="C74" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>491</v>
       </c>
       <c r="F74" s="16">
         <v>44</v>
@@ -6733,13 +6744,13 @@
         <v>43487</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F75" s="16">
         <v>44</v>
@@ -6756,13 +6767,13 @@
         <v>43487</v>
       </c>
       <c r="C76" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="F76" s="16">
         <v>44</v>
@@ -6779,13 +6790,13 @@
         <v>43487</v>
       </c>
       <c r="C77" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="F77" s="16">
         <v>44</v>
@@ -6802,13 +6813,13 @@
         <v>43487</v>
       </c>
       <c r="C78" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>474</v>
-      </c>
-      <c r="D78" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>475</v>
       </c>
       <c r="F78" s="16">
         <v>55</v>
@@ -6825,13 +6836,13 @@
         <v>43487</v>
       </c>
       <c r="C79" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="F79" s="16">
         <v>55</v>
@@ -6848,13 +6859,13 @@
         <v>43488</v>
       </c>
       <c r="C80" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="D80" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="F80" s="16">
         <v>44</v>
@@ -6871,13 +6882,13 @@
         <v>43488</v>
       </c>
       <c r="C81" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>486</v>
-      </c>
-      <c r="D81" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>487</v>
       </c>
       <c r="F81" s="16">
         <v>55</v>
@@ -6894,13 +6905,13 @@
         <v>43488</v>
       </c>
       <c r="C82" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>454</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>455</v>
       </c>
       <c r="F82" s="16">
         <v>44</v>
@@ -6917,13 +6928,13 @@
         <v>43488</v>
       </c>
       <c r="C83" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>482</v>
-      </c>
-      <c r="D83" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>483</v>
       </c>
       <c r="F83" s="16">
         <v>55</v>
@@ -6940,13 +6951,13 @@
         <v>43488</v>
       </c>
       <c r="C84" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>454</v>
-      </c>
-      <c r="D84" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>455</v>
       </c>
       <c r="F84" s="16">
         <v>44</v>
@@ -6963,13 +6974,13 @@
         <v>43488</v>
       </c>
       <c r="C85" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="F85" s="16">
         <v>55</v>
@@ -6986,13 +6997,13 @@
         <v>43488</v>
       </c>
       <c r="C86" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="E86" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="D86" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="F86" s="16">
         <v>44</v>
@@ -7009,13 +7020,13 @@
         <v>43488</v>
       </c>
       <c r="C87" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="D87" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>428</v>
       </c>
       <c r="F87" s="16">
         <v>44</v>
@@ -7032,13 +7043,13 @@
         <v>43488</v>
       </c>
       <c r="C88" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E88" s="5" t="s">
         <v>462</v>
-      </c>
-      <c r="D88" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>463</v>
       </c>
       <c r="F88" s="16">
         <v>44</v>
@@ -7055,13 +7066,13 @@
         <v>43488</v>
       </c>
       <c r="C89" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E89" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="F89" s="16">
         <v>44</v>
@@ -7078,13 +7089,13 @@
         <v>43489</v>
       </c>
       <c r="C90" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E90" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>502</v>
       </c>
       <c r="F90" s="16">
         <v>44</v>
@@ -7101,13 +7112,13 @@
         <v>43489</v>
       </c>
       <c r="C91" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E91" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>504</v>
       </c>
       <c r="F91" s="16">
         <v>44</v>
@@ -7124,13 +7135,13 @@
         <v>43489</v>
       </c>
       <c r="C92" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E92" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="D92" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>396</v>
       </c>
       <c r="F92" s="16">
         <v>44</v>
@@ -7147,13 +7158,13 @@
         <v>43489</v>
       </c>
       <c r="C93" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E93" s="5" t="s">
         <v>474</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>475</v>
       </c>
       <c r="F93" s="16">
         <v>55</v>
@@ -7170,13 +7181,13 @@
         <v>43489</v>
       </c>
       <c r="C94" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="D94" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="D94" s="16" t="s">
-        <v>387</v>
-      </c>
       <c r="E94" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F94" s="16">
         <v>44</v>
@@ -7193,13 +7204,13 @@
         <v>43489</v>
       </c>
       <c r="C95" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E95" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="D95" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>414</v>
       </c>
       <c r="F95" s="16">
         <v>44</v>
@@ -7216,13 +7227,13 @@
         <v>43490</v>
       </c>
       <c r="C96" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D96" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="D96" s="16" t="s">
+      <c r="E96" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>417</v>
       </c>
       <c r="F96" s="16">
         <v>44</v>
@@ -7239,13 +7250,13 @@
         <v>43490</v>
       </c>
       <c r="C97" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E97" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>428</v>
       </c>
       <c r="F97" s="16">
         <v>44</v>
@@ -7262,13 +7273,13 @@
         <v>43490</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F98" s="16">
         <v>44</v>
@@ -7285,13 +7296,13 @@
         <v>43490</v>
       </c>
       <c r="C99" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E99" s="5" t="s">
         <v>458</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>459</v>
       </c>
       <c r="F99" s="16">
         <v>44</v>
@@ -7308,13 +7319,13 @@
         <v>43490</v>
       </c>
       <c r="C100" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="E100" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="F100" s="16">
         <v>55</v>
@@ -7331,13 +7342,13 @@
         <v>43498</v>
       </c>
       <c r="C101" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E101" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="D101" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>504</v>
       </c>
       <c r="F101" s="16">
         <v>55</v>
@@ -7354,13 +7365,13 @@
         <v>43498</v>
       </c>
       <c r="C102" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E102" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="D102" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>507</v>
       </c>
       <c r="F102" s="16">
         <v>44</v>
@@ -7377,13 +7388,13 @@
         <v>43498</v>
       </c>
       <c r="C103" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E103" s="5" t="s">
         <v>476</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>477</v>
       </c>
       <c r="F103" s="16">
         <v>44</v>
@@ -7400,13 +7411,13 @@
         <v>43498</v>
       </c>
       <c r="C104" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E104" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="D104" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="F104" s="16">
         <v>44</v>
@@ -7423,13 +7434,13 @@
         <v>43498</v>
       </c>
       <c r="C105" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="E105" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="D105" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="F105" s="16">
         <v>55</v>
@@ -7446,13 +7457,13 @@
         <v>43499</v>
       </c>
       <c r="C106" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E106" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="D106" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="F106" s="16">
         <v>44</v>
@@ -7469,13 +7480,13 @@
         <v>43499</v>
       </c>
       <c r="C107" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E107" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="D107" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="F107" s="16">
         <v>55</v>
@@ -7492,13 +7503,13 @@
         <v>43499</v>
       </c>
       <c r="C108" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E108" s="5" t="s">
         <v>474</v>
-      </c>
-      <c r="D108" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>475</v>
       </c>
       <c r="F108" s="16">
         <v>44</v>
@@ -7515,13 +7526,13 @@
         <v>43501</v>
       </c>
       <c r="C109" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E109" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="F109" s="16">
         <v>55</v>
@@ -7538,13 +7549,13 @@
         <v>43501</v>
       </c>
       <c r="C110" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E110" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="D110" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="F110" s="16">
         <v>55</v>
@@ -7561,13 +7572,13 @@
         <v>43501</v>
       </c>
       <c r="C111" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E111" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="D111" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="F111" s="16">
         <v>44</v>
@@ -7584,13 +7595,13 @@
         <v>43501</v>
       </c>
       <c r="C112" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E112" s="5" t="s">
         <v>480</v>
-      </c>
-      <c r="D112" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>481</v>
       </c>
       <c r="F112" s="16">
         <v>44</v>
@@ -7607,13 +7618,13 @@
         <v>43502</v>
       </c>
       <c r="C113" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E113" s="5" t="s">
         <v>449</v>
-      </c>
-      <c r="D113" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>450</v>
       </c>
       <c r="F113" s="16">
         <v>44</v>
@@ -7630,13 +7641,13 @@
         <v>43502</v>
       </c>
       <c r="C114" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="D114" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="D114" s="16" t="s">
-        <v>387</v>
-      </c>
       <c r="E114" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F114" s="16">
         <v>44</v>
@@ -7653,13 +7664,13 @@
         <v>43502</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F115" s="16">
         <v>44</v>
@@ -7676,13 +7687,13 @@
         <v>43503</v>
       </c>
       <c r="C116" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E116" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>414</v>
       </c>
       <c r="F116" s="16">
         <v>55</v>
@@ -7699,13 +7710,13 @@
         <v>43503</v>
       </c>
       <c r="C117" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D117" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="D117" s="16" t="s">
+      <c r="E117" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>417</v>
       </c>
       <c r="F117" s="16">
         <v>44</v>
@@ -7722,13 +7733,13 @@
         <v>43505</v>
       </c>
       <c r="C118" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="E118" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="D118" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="F118" s="16">
         <v>55</v>
@@ -7745,13 +7756,13 @@
         <v>43506</v>
       </c>
       <c r="C119" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E119" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="D119" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="F119" s="16">
         <v>44</v>
@@ -7768,13 +7779,13 @@
         <v>43506</v>
       </c>
       <c r="C120" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E120" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="D120" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="F120" s="16">
         <v>44</v>
@@ -7791,13 +7802,13 @@
         <v>43507</v>
       </c>
       <c r="C121" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="D121" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="D121" s="16" t="s">
+      <c r="E121" s="5" t="s">
         <v>398</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>399</v>
       </c>
       <c r="F121" s="16">
         <v>55</v>
@@ -7814,13 +7825,13 @@
         <v>43507</v>
       </c>
       <c r="C122" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E122" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="D122" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>406</v>
       </c>
       <c r="F122" s="16">
         <v>55</v>
@@ -7837,13 +7848,13 @@
         <v>43510</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F123" s="16">
         <v>55</v>
@@ -7860,13 +7871,13 @@
         <v>43510</v>
       </c>
       <c r="C124" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E124" s="5" t="s">
         <v>484</v>
-      </c>
-      <c r="D124" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>485</v>
       </c>
       <c r="F124" s="16">
         <v>55</v>
@@ -7883,13 +7894,13 @@
         <v>43510</v>
       </c>
       <c r="C125" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E125" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="D125" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>504</v>
       </c>
       <c r="F125" s="16">
         <v>55</v>
@@ -7906,13 +7917,13 @@
         <v>43511</v>
       </c>
       <c r="C126" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E126" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="D126" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="F126" s="16">
         <v>44</v>
@@ -7929,13 +7940,13 @@
         <v>43512</v>
       </c>
       <c r="C127" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E127" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="F127" s="16">
         <v>44</v>
@@ -7952,13 +7963,13 @@
         <v>43513</v>
       </c>
       <c r="C128" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E128" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="D128" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="F128" s="16">
         <v>55</v>
@@ -7975,13 +7986,13 @@
         <v>43513</v>
       </c>
       <c r="C129" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E129" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="D129" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>504</v>
       </c>
       <c r="F129" s="16">
         <v>55</v>
@@ -7998,13 +8009,13 @@
         <v>43514</v>
       </c>
       <c r="C130" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="D130" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="D130" s="16" t="s">
+      <c r="E130" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="F130" s="16">
         <v>44</v>
@@ -8021,13 +8032,13 @@
         <v>43515</v>
       </c>
       <c r="C131" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E131" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="D131" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>406</v>
       </c>
       <c r="F131" s="16">
         <v>55</v>
@@ -8044,13 +8055,13 @@
         <v>43515</v>
       </c>
       <c r="C132" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E132" s="5" t="s">
         <v>441</v>
-      </c>
-      <c r="D132" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>442</v>
       </c>
       <c r="F132" s="16">
         <v>44</v>
@@ -8067,13 +8078,13 @@
         <v>43516</v>
       </c>
       <c r="C133" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E133" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="D133" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="F133" s="16">
         <v>44</v>
@@ -8090,13 +8101,13 @@
         <v>43516</v>
       </c>
       <c r="C134" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E134" s="5" t="s">
         <v>488</v>
-      </c>
-      <c r="D134" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>489</v>
       </c>
       <c r="F134" s="16">
         <v>55</v>
@@ -8113,13 +8124,13 @@
         <v>43516</v>
       </c>
       <c r="C135" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E135" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="D135" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>504</v>
       </c>
       <c r="F135" s="16">
         <v>44</v>
@@ -8136,13 +8147,13 @@
         <v>43517</v>
       </c>
       <c r="C136" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="D136" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="D136" s="16" t="s">
+      <c r="E136" s="5" t="s">
         <v>398</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>399</v>
       </c>
       <c r="F136" s="16">
         <v>55</v>
@@ -8159,13 +8170,13 @@
         <v>43517</v>
       </c>
       <c r="C137" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D137" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="D137" s="16" t="s">
+      <c r="E137" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>417</v>
       </c>
       <c r="F137" s="16">
         <v>44</v>
@@ -8182,13 +8193,13 @@
         <v>43517</v>
       </c>
       <c r="C138" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E138" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="D138" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="F138" s="16">
         <v>44</v>
@@ -8205,13 +8216,13 @@
         <v>43518</v>
       </c>
       <c r="C139" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E139" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="D139" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>428</v>
       </c>
       <c r="F139" s="16">
         <v>44</v>
@@ -8228,13 +8239,13 @@
         <v>43518</v>
       </c>
       <c r="C140" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E140" s="5" t="s">
         <v>456</v>
-      </c>
-      <c r="D140" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>457</v>
       </c>
       <c r="F140" s="16">
         <v>55</v>
@@ -8251,13 +8262,13 @@
         <v>43520</v>
       </c>
       <c r="C141" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E141" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="D141" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="F141" s="16">
         <v>55</v>
@@ -8274,13 +8285,13 @@
         <v>43520</v>
       </c>
       <c r="C142" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="D142" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="D142" s="16" t="s">
+      <c r="E142" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="F142" s="16">
         <v>55</v>
@@ -8297,13 +8308,13 @@
         <v>43523</v>
       </c>
       <c r="C143" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E143" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="D143" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>406</v>
       </c>
       <c r="F143" s="16">
         <v>55</v>
@@ -8320,13 +8331,13 @@
         <v>43524</v>
       </c>
       <c r="C144" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E144" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="D144" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="F144" s="16">
         <v>44</v>
@@ -8343,13 +8354,13 @@
         <v>43524</v>
       </c>
       <c r="C145" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E145" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="D145" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="F145" s="16">
         <v>44</v>
@@ -8366,13 +8377,13 @@
         <v>43524</v>
       </c>
       <c r="C146" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E146" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="D146" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>502</v>
       </c>
       <c r="F146" s="16">
         <v>55</v>
@@ -8389,13 +8400,13 @@
         <v>43525</v>
       </c>
       <c r="C147" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="D147" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="D147" s="16" t="s">
+      <c r="E147" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="F147" s="16">
         <v>44</v>
@@ -8412,13 +8423,13 @@
         <v>43526</v>
       </c>
       <c r="C148" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="D148" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E148" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="D148" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>410</v>
       </c>
       <c r="F148" s="16">
         <v>44</v>
@@ -8435,13 +8446,13 @@
         <v>43527</v>
       </c>
       <c r="C149" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E149" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="D149" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="F149" s="16">
         <v>44</v>
@@ -8458,13 +8469,13 @@
         <v>43528</v>
       </c>
       <c r="C150" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E150" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="D150" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>507</v>
       </c>
       <c r="F150" s="16">
         <v>44</v>
@@ -8481,13 +8492,13 @@
         <v>43529</v>
       </c>
       <c r="C151" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E151" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="D151" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="F151" s="16">
         <v>44</v>
@@ -8504,13 +8515,13 @@
         <v>43530</v>
       </c>
       <c r="C152" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="D152" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="D152" s="16" t="s">
+      <c r="E152" s="5" t="s">
         <v>398</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>399</v>
       </c>
       <c r="F152" s="16">
         <v>55</v>
@@ -8527,13 +8538,13 @@
         <v>43525</v>
       </c>
       <c r="C153" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="D153" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E153" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="D153" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>428</v>
       </c>
       <c r="F153" s="16">
         <v>55</v>
@@ -8550,13 +8561,13 @@
         <v>43526</v>
       </c>
       <c r="C154" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D154" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="D154" s="16" t="s">
+      <c r="E154" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>391</v>
       </c>
       <c r="F154" s="16">
         <v>44</v>
@@ -8573,13 +8584,13 @@
         <v>43527</v>
       </c>
       <c r="C155" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="D155" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E155" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="D155" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>406</v>
       </c>
       <c r="F155" s="16">
         <v>55</v>
@@ -8596,13 +8607,13 @@
         <v>43527</v>
       </c>
       <c r="C156" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="D156" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E156" s="5" t="s">
         <v>472</v>
-      </c>
-      <c r="D156" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>473</v>
       </c>
       <c r="F156" s="16">
         <v>55</v>
@@ -8619,13 +8630,13 @@
         <v>43528</v>
       </c>
       <c r="C157" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E157" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="D157" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E157" s="5" t="s">
-        <v>414</v>
       </c>
       <c r="F157" s="16">
         <v>44</v>
@@ -8642,13 +8653,13 @@
         <v>43529</v>
       </c>
       <c r="C158" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="D158" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="D158" s="16" t="s">
+      <c r="E158" s="5" t="s">
         <v>398</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>399</v>
       </c>
       <c r="F158" s="16">
         <v>55</v>
@@ -8665,13 +8676,13 @@
         <v>43530</v>
       </c>
       <c r="C159" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="D159" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="D159" s="16" t="s">
+      <c r="E159" s="5" t="s">
         <v>398</v>
-      </c>
-      <c r="E159" s="5" t="s">
-        <v>399</v>
       </c>
       <c r="F159" s="16">
         <v>55</v>
@@ -8688,13 +8699,13 @@
         <v>43531</v>
       </c>
       <c r="C160" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="D160" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E160" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="D160" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="F160" s="16">
         <v>44</v>
@@ -8711,13 +8722,13 @@
         <v>43533</v>
       </c>
       <c r="C161" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D161" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E161" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="D161" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="F161" s="16">
         <v>55</v>
@@ -8734,13 +8745,13 @@
         <v>43533</v>
       </c>
       <c r="C162" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="D162" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="E162" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="D162" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="E162" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="F162" s="16">
         <v>44</v>
@@ -8757,13 +8768,13 @@
         <v>43535</v>
       </c>
       <c r="C163" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E163" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="D163" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E163" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="F163" s="16">
         <v>55</v>
@@ -8780,13 +8791,13 @@
         <v>43536</v>
       </c>
       <c r="C164" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E164" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="D164" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="F164" s="16">
         <v>44</v>
@@ -8803,13 +8814,13 @@
         <v>43538</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F165" s="16">
         <v>55</v>
@@ -8826,13 +8837,13 @@
         <v>43538</v>
       </c>
       <c r="C166" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="D166" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E166" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="D166" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>504</v>
       </c>
       <c r="F166" s="16">
         <v>55</v>
@@ -8849,13 +8860,13 @@
         <v>43539</v>
       </c>
       <c r="C167" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="D167" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E167" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="D167" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="F167" s="16">
         <v>55</v>
@@ -8872,13 +8883,13 @@
         <v>43542</v>
       </c>
       <c r="C168" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="D168" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="D168" s="16" t="s">
+      <c r="E168" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="F168" s="16">
         <v>44</v>
@@ -8895,13 +8906,13 @@
         <v>43543</v>
       </c>
       <c r="C169" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D169" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E169" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="D169" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="F169" s="16">
         <v>44</v>
@@ -8918,13 +8929,13 @@
         <v>43543</v>
       </c>
       <c r="C170" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="D170" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E170" s="5" t="s">
         <v>441</v>
-      </c>
-      <c r="D170" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>442</v>
       </c>
       <c r="F170" s="16">
         <v>44</v>
@@ -8941,13 +8952,13 @@
         <v>43544</v>
       </c>
       <c r="C171" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="D171" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E171" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="D171" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>513</v>
       </c>
       <c r="F171" s="16">
         <v>55</v>
@@ -8964,13 +8975,13 @@
         <v>43544</v>
       </c>
       <c r="C172" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="D172" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="D172" s="16" t="s">
+      <c r="E172" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="E172" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="F172" s="16">
         <v>44</v>
@@ -8987,13 +8998,13 @@
         <v>43544</v>
       </c>
       <c r="C173" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="D173" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E173" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="D173" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="F173" s="16">
         <v>44</v>
@@ -9010,13 +9021,13 @@
         <v>43544</v>
       </c>
       <c r="C174" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="D174" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E174" s="5" t="s">
         <v>466</v>
-      </c>
-      <c r="D174" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>467</v>
       </c>
       <c r="F174" s="16">
         <v>55</v>
@@ -9033,13 +9044,13 @@
         <v>43544</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D175" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F175" s="16">
         <v>55</v>
@@ -9056,13 +9067,13 @@
         <v>43544</v>
       </c>
       <c r="C176" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="D176" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E176" s="5" t="s">
         <v>484</v>
-      </c>
-      <c r="D176" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>485</v>
       </c>
       <c r="F176" s="16">
         <v>44</v>
@@ -9079,13 +9090,13 @@
         <v>43545</v>
       </c>
       <c r="C177" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="D177" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E177" s="5" t="s">
         <v>411</v>
-      </c>
-      <c r="D177" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>412</v>
       </c>
       <c r="F177" s="16">
         <v>55</v>
@@ -9102,13 +9113,13 @@
         <v>43545</v>
       </c>
       <c r="C178" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="D178" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E178" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="D178" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="F178" s="16">
         <v>44</v>
@@ -9125,13 +9136,13 @@
         <v>43547</v>
       </c>
       <c r="C179" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="D179" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="D179" s="16" t="s">
+      <c r="E179" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="E179" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="F179" s="16">
         <v>44</v>
@@ -9148,13 +9159,13 @@
         <v>43548</v>
       </c>
       <c r="C180" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="D180" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E180" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="D180" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E180" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="F180" s="16">
         <v>55</v>
@@ -9171,13 +9182,13 @@
         <v>43548</v>
       </c>
       <c r="C181" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="D181" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="D181" s="16" t="s">
+      <c r="E181" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="E181" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="F181" s="16">
         <v>44</v>
@@ -9194,13 +9205,13 @@
         <v>43551</v>
       </c>
       <c r="C182" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="D182" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E182" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="D182" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E182" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="F182" s="16">
         <v>55</v>
@@ -9217,13 +9228,13 @@
         <v>43552</v>
       </c>
       <c r="C183" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="D183" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E183" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="D183" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E183" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="F183" s="16">
         <v>55</v>
@@ -9240,13 +9251,13 @@
         <v>43552</v>
       </c>
       <c r="C184" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="D184" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E184" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="D184" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E184" s="5" t="s">
-        <v>502</v>
       </c>
       <c r="F184" s="16">
         <v>55</v>
@@ -9263,13 +9274,13 @@
         <v>43553</v>
       </c>
       <c r="C185" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="D185" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E185" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="D185" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>410</v>
       </c>
       <c r="F185" s="16">
         <v>44</v>
@@ -9286,13 +9297,13 @@
         <v>43553</v>
       </c>
       <c r="C186" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="D186" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E186" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="D186" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E186" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="F186" s="16">
         <v>44</v>
@@ -9309,13 +9320,13 @@
         <v>43553</v>
       </c>
       <c r="C187" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="D187" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E187" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="D187" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E187" s="5" t="s">
-        <v>507</v>
       </c>
       <c r="F187" s="16">
         <v>44</v>
@@ -9332,13 +9343,13 @@
         <v>43553</v>
       </c>
       <c r="C188" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D188" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E188" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="D188" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E188" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="F188" s="16">
         <v>44</v>
@@ -9355,13 +9366,13 @@
         <v>43554</v>
       </c>
       <c r="C189" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="D189" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E189" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="D189" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E189" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="F189" s="16">
         <v>44</v>
@@ -9378,13 +9389,13 @@
         <v>43555</v>
       </c>
       <c r="C190" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="D190" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E190" s="5" t="s">
         <v>484</v>
-      </c>
-      <c r="D190" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E190" s="5" t="s">
-        <v>485</v>
       </c>
       <c r="F190" s="16">
         <v>55</v>
@@ -9401,13 +9412,13 @@
         <v>43556</v>
       </c>
       <c r="C191" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="D191" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="D191" s="16" t="s">
+      <c r="E191" s="5" t="s">
         <v>398</v>
-      </c>
-      <c r="E191" s="5" t="s">
-        <v>399</v>
       </c>
       <c r="F191" s="16">
         <v>55</v>
@@ -9424,13 +9435,13 @@
         <v>43556</v>
       </c>
       <c r="C192" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="D192" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E192" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="D192" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E192" s="5" t="s">
-        <v>428</v>
       </c>
       <c r="F192" s="16">
         <v>44</v>
@@ -9447,13 +9458,13 @@
         <v>43556</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D193" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F193" s="16">
         <v>44</v>
@@ -9470,13 +9481,13 @@
         <v>43556</v>
       </c>
       <c r="C194" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="D194" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E194" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="D194" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>502</v>
       </c>
       <c r="F194" s="16">
         <v>44</v>
@@ -9493,13 +9504,13 @@
         <v>43557</v>
       </c>
       <c r="C195" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="D195" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E195" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="D195" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>396</v>
       </c>
       <c r="F195" s="16">
         <v>44</v>
@@ -9516,13 +9527,13 @@
         <v>43557</v>
       </c>
       <c r="C196" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="D196" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E196" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="D196" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E196" s="5" t="s">
-        <v>507</v>
       </c>
       <c r="F196" s="16">
         <v>55</v>
@@ -9539,13 +9550,13 @@
         <v>43558</v>
       </c>
       <c r="C197" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="D197" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E197" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="D197" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E197" s="5" t="s">
-        <v>396</v>
       </c>
       <c r="F197" s="16">
         <v>44</v>
@@ -9562,13 +9573,13 @@
         <v>43558</v>
       </c>
       <c r="C198" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="D198" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="D198" s="16" t="s">
+      <c r="E198" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="E198" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="F198" s="16">
         <v>44</v>
@@ -9585,13 +9596,13 @@
         <v>43558</v>
       </c>
       <c r="C199" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="D199" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E199" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="D199" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E199" s="5" t="s">
-        <v>507</v>
       </c>
       <c r="F199" s="16">
         <v>44</v>
@@ -9608,13 +9619,13 @@
         <v>43561</v>
       </c>
       <c r="C200" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="D200" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E200" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="D200" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>396</v>
       </c>
       <c r="F200" s="16">
         <v>44</v>
@@ -9631,13 +9642,13 @@
         <v>43565</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D201" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F201" s="16">
         <v>44</v>
@@ -9654,13 +9665,13 @@
         <v>43565</v>
       </c>
       <c r="C202" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="D202" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="E202" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="D202" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="E202" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="F202" s="16">
         <v>55</v>
@@ -9677,13 +9688,13 @@
         <v>43565</v>
       </c>
       <c r="C203" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="D203" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E203" s="5" t="s">
         <v>484</v>
-      </c>
-      <c r="D203" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E203" s="5" t="s">
-        <v>485</v>
       </c>
       <c r="F203" s="16">
         <v>44</v>
@@ -9700,13 +9711,13 @@
         <v>43566</v>
       </c>
       <c r="C204" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="D204" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E204" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="D204" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E204" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="F204" s="16">
         <v>44</v>
@@ -9723,13 +9734,13 @@
         <v>43566</v>
       </c>
       <c r="C205" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="D205" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E205" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="D205" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E205" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="F205" s="16">
         <v>55</v>
@@ -9746,13 +9757,13 @@
         <v>43571</v>
       </c>
       <c r="C206" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="D206" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E206" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="D206" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E206" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="F206" s="16">
         <v>44</v>
@@ -9769,13 +9780,13 @@
         <v>43574</v>
       </c>
       <c r="C207" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="D207" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E207" s="5" t="s">
         <v>441</v>
-      </c>
-      <c r="D207" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E207" s="5" t="s">
-        <v>442</v>
       </c>
       <c r="F207" s="16">
         <v>44</v>
@@ -9792,13 +9803,13 @@
         <v>43575</v>
       </c>
       <c r="C208" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="D208" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E208" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="D208" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E208" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="F208" s="16">
         <v>44</v>
@@ -9815,13 +9826,13 @@
         <v>43575</v>
       </c>
       <c r="C209" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="D209" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E209" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="D209" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E209" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="F209" s="16">
         <v>44</v>
@@ -9838,13 +9849,13 @@
         <v>43577</v>
       </c>
       <c r="C210" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="D210" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E210" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="D210" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E210" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="F210" s="16">
         <v>44</v>
@@ -9861,13 +9872,13 @@
         <v>43579</v>
       </c>
       <c r="C211" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="D211" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E211" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="D211" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E211" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="F211" s="16">
         <v>55</v>
@@ -9884,13 +9895,13 @@
         <v>43579</v>
       </c>
       <c r="C212" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="D212" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="D212" s="16" t="s">
+      <c r="E212" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="E212" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="F212" s="16">
         <v>44</v>
@@ -9907,13 +9918,13 @@
         <v>43580</v>
       </c>
       <c r="C213" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="D213" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E213" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="D213" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E213" s="5" t="s">
-        <v>426</v>
       </c>
       <c r="F213" s="16">
         <v>44</v>
@@ -9930,13 +9941,13 @@
         <v>43583</v>
       </c>
       <c r="C214" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="D214" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E214" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="D214" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E214" s="5" t="s">
-        <v>502</v>
       </c>
       <c r="F214" s="16">
         <v>55</v>
@@ -9953,13 +9964,13 @@
         <v>43584</v>
       </c>
       <c r="C215" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="D215" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="D215" s="16" t="s">
+      <c r="E215" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="E215" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="F215" s="16">
         <v>44</v>
@@ -9976,13 +9987,13 @@
         <v>43584</v>
       </c>
       <c r="C216" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="D216" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E216" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="D216" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E216" s="5" t="s">
-        <v>410</v>
       </c>
       <c r="F216" s="16">
         <v>44</v>
@@ -9999,13 +10010,13 @@
         <v>43585</v>
       </c>
       <c r="C217" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="D217" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="D217" s="16" t="s">
+      <c r="E217" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="E217" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="F217" s="16">
         <v>44</v>
@@ -10022,13 +10033,13 @@
         <v>43586</v>
       </c>
       <c r="C218" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D218" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="D218" s="16" t="s">
+      <c r="E218" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="E218" s="5" t="s">
-        <v>417</v>
       </c>
       <c r="F218" s="16">
         <v>55</v>
@@ -10045,13 +10056,13 @@
         <v>43586</v>
       </c>
       <c r="C219" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="D219" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="D219" s="16" t="s">
+      <c r="E219" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="E219" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="F219" s="16">
         <v>55</v>
@@ -10068,13 +10079,13 @@
         <v>43586</v>
       </c>
       <c r="C220" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="D220" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E220" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="D220" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E220" s="5" t="s">
-        <v>428</v>
       </c>
       <c r="F220" s="16">
         <v>44</v>
@@ -10091,13 +10102,13 @@
         <v>43586</v>
       </c>
       <c r="C221" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="D221" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E221" s="5" t="s">
         <v>462</v>
-      </c>
-      <c r="D221" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E221" s="5" t="s">
-        <v>463</v>
       </c>
       <c r="F221" s="16">
         <v>55</v>
@@ -10114,13 +10125,13 @@
         <v>43587</v>
       </c>
       <c r="C222" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="D222" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="D222" s="16" t="s">
+      <c r="E222" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="E222" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="F222" s="16">
         <v>55</v>
@@ -10137,13 +10148,13 @@
         <v>43588</v>
       </c>
       <c r="C223" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="D223" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E223" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="D223" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E223" s="5" t="s">
-        <v>426</v>
       </c>
       <c r="F223" s="16">
         <v>44</v>
@@ -10160,13 +10171,13 @@
         <v>43589</v>
       </c>
       <c r="C224" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="D224" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E224" s="5" t="s">
         <v>466</v>
-      </c>
-      <c r="D224" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E224" s="5" t="s">
-        <v>467</v>
       </c>
       <c r="F224" s="16">
         <v>44</v>
@@ -10183,13 +10194,13 @@
         <v>43595</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D225" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F225" s="16">
         <v>44</v>
@@ -10206,13 +10217,13 @@
         <v>43596</v>
       </c>
       <c r="C226" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="D226" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E226" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="D226" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E226" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="F226" s="16">
         <v>44</v>
@@ -10229,13 +10240,13 @@
         <v>43596</v>
       </c>
       <c r="C227" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="D227" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E227" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="D227" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E227" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="F227" s="16">
         <v>55</v>
@@ -10252,13 +10263,13 @@
         <v>43600</v>
       </c>
       <c r="C228" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="D228" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E228" s="5" t="s">
         <v>462</v>
-      </c>
-      <c r="D228" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E228" s="5" t="s">
-        <v>463</v>
       </c>
       <c r="F228" s="16">
         <v>44</v>
@@ -10275,13 +10286,13 @@
         <v>43601</v>
       </c>
       <c r="C229" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="D229" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E229" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="D229" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E229" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="F229" s="16">
         <v>44</v>
@@ -10298,13 +10309,13 @@
         <v>43602</v>
       </c>
       <c r="C230" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="D230" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E230" s="5" t="s">
         <v>486</v>
-      </c>
-      <c r="D230" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E230" s="5" t="s">
-        <v>487</v>
       </c>
       <c r="F230" s="16">
         <v>44</v>
@@ -10321,13 +10332,13 @@
         <v>43603</v>
       </c>
       <c r="C231" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="D231" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E231" s="5" t="s">
         <v>454</v>
-      </c>
-      <c r="D231" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E231" s="5" t="s">
-        <v>455</v>
       </c>
       <c r="F231" s="16">
         <v>44</v>
@@ -10344,13 +10355,13 @@
         <v>43604</v>
       </c>
       <c r="C232" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="D232" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E232" s="5" t="s">
         <v>441</v>
-      </c>
-      <c r="D232" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E232" s="5" t="s">
-        <v>442</v>
       </c>
       <c r="F232" s="16">
         <v>44</v>
@@ -10367,13 +10378,13 @@
         <v>43604</v>
       </c>
       <c r="C233" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="D233" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E233" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="D233" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E233" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="F233" s="16">
         <v>44</v>
@@ -10390,13 +10401,13 @@
         <v>43605</v>
       </c>
       <c r="C234" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="D234" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E234" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="D234" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E234" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="F234" s="16">
         <v>44</v>
@@ -10413,13 +10424,13 @@
         <v>43605</v>
       </c>
       <c r="C235" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="D235" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E235" s="5" t="s">
         <v>478</v>
-      </c>
-      <c r="D235" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E235" s="5" t="s">
-        <v>479</v>
       </c>
       <c r="F235" s="16">
         <v>44</v>
@@ -10436,13 +10447,13 @@
         <v>43606</v>
       </c>
       <c r="C236" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="D236" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E236" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="D236" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E236" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="F236" s="16">
         <v>44</v>
@@ -10459,13 +10470,13 @@
         <v>43606</v>
       </c>
       <c r="C237" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="D237" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E237" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="D237" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E237" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="F237" s="16">
         <v>44</v>
@@ -10482,13 +10493,13 @@
         <v>43607</v>
       </c>
       <c r="C238" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="D238" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E238" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="D238" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E238" s="5" t="s">
-        <v>428</v>
       </c>
       <c r="F238" s="16">
         <v>44</v>
@@ -10505,13 +10516,13 @@
         <v>43609</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D239" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F239" s="16">
         <v>55</v>
@@ -10528,13 +10539,13 @@
         <v>43610</v>
       </c>
       <c r="C240" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="D240" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E240" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="D240" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E240" s="5" t="s">
-        <v>426</v>
       </c>
       <c r="F240" s="16">
         <v>44</v>
@@ -10551,13 +10562,13 @@
         <v>43612</v>
       </c>
       <c r="C241" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="D241" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E241" s="5" t="s">
         <v>454</v>
-      </c>
-      <c r="D241" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E241" s="5" t="s">
-        <v>455</v>
       </c>
       <c r="F241" s="16">
         <v>44</v>
@@ -10574,13 +10585,13 @@
         <v>43613</v>
       </c>
       <c r="C242" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="D242" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E242" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="D242" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E242" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="F242" s="16">
         <v>55</v>
@@ -10597,13 +10608,13 @@
         <v>43613</v>
       </c>
       <c r="C243" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="D243" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E243" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="D243" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E243" s="5" t="s">
-        <v>426</v>
       </c>
       <c r="F243" s="16">
         <v>44</v>
@@ -10620,13 +10631,13 @@
         <v>43613</v>
       </c>
       <c r="C244" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="D244" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E244" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="D244" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E244" s="5" t="s">
-        <v>502</v>
       </c>
       <c r="F244" s="16">
         <v>44</v>
@@ -10643,13 +10654,13 @@
         <v>43614</v>
       </c>
       <c r="C245" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="D245" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E245" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="D245" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E245" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="F245" s="16">
         <v>44</v>
@@ -10666,13 +10677,13 @@
         <v>43614</v>
       </c>
       <c r="C246" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D246" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E246" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="D246" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E246" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="F246" s="16">
         <v>44</v>
@@ -10689,13 +10700,13 @@
         <v>43614</v>
       </c>
       <c r="C247" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="D247" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E247" s="5" t="s">
         <v>482</v>
-      </c>
-      <c r="D247" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E247" s="5" t="s">
-        <v>483</v>
       </c>
       <c r="F247" s="16">
         <v>55</v>
@@ -10712,13 +10723,13 @@
         <v>43615</v>
       </c>
       <c r="C248" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="D248" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E248" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="D248" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E248" s="5" t="s">
-        <v>513</v>
       </c>
       <c r="F248" s="16">
         <v>44</v>
@@ -10735,13 +10746,13 @@
         <v>43616</v>
       </c>
       <c r="C249" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="D249" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E249" s="5" t="s">
         <v>447</v>
-      </c>
-      <c r="D249" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E249" s="5" t="s">
-        <v>448</v>
       </c>
       <c r="F249" s="16">
         <v>44</v>
@@ -10758,13 +10769,13 @@
         <v>43616</v>
       </c>
       <c r="C250" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="D250" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E250" s="5" t="s">
         <v>482</v>
-      </c>
-      <c r="D250" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E250" s="5" t="s">
-        <v>483</v>
       </c>
       <c r="F250" s="16">
         <v>44</v>
@@ -10781,13 +10792,13 @@
         <v>43617</v>
       </c>
       <c r="C251" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="D251" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E251" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="D251" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E251" s="5" t="s">
-        <v>513</v>
       </c>
       <c r="F251" s="16">
         <v>44</v>
@@ -10804,13 +10815,13 @@
         <v>43617</v>
       </c>
       <c r="C252" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="D252" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="D252" s="16" t="s">
+      <c r="E252" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="E252" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="F252" s="16">
         <v>55</v>
@@ -10827,13 +10838,13 @@
         <v>43617</v>
       </c>
       <c r="C253" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="D253" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E253" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="D253" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E253" s="5" t="s">
-        <v>428</v>
       </c>
       <c r="F253" s="16">
         <v>44</v>
@@ -10850,13 +10861,13 @@
         <v>43618</v>
       </c>
       <c r="C254" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D254" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="D254" s="16" t="s">
+      <c r="E254" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="E254" s="5" t="s">
-        <v>391</v>
       </c>
       <c r="F254" s="16">
         <v>44</v>
@@ -10873,13 +10884,13 @@
         <v>43618</v>
       </c>
       <c r="C255" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="D255" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E255" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="D255" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E255" s="5" t="s">
-        <v>426</v>
       </c>
       <c r="F255" s="16">
         <v>44</v>
@@ -10896,13 +10907,13 @@
         <v>43619</v>
       </c>
       <c r="C256" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="D256" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="D256" s="16" t="s">
-        <v>387</v>
-      </c>
       <c r="E256" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F256" s="16">
         <v>44</v>
@@ -10919,13 +10930,13 @@
         <v>43619</v>
       </c>
       <c r="C257" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="D257" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E257" s="5" t="s">
         <v>445</v>
-      </c>
-      <c r="D257" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E257" s="5" t="s">
-        <v>446</v>
       </c>
       <c r="F257" s="16">
         <v>44</v>
@@ -10942,13 +10953,13 @@
         <v>43619</v>
       </c>
       <c r="C258" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="D258" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E258" s="5" t="s">
         <v>454</v>
-      </c>
-      <c r="D258" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E258" s="5" t="s">
-        <v>455</v>
       </c>
       <c r="F258" s="16">
         <v>55</v>
@@ -10965,13 +10976,13 @@
         <v>43623</v>
       </c>
       <c r="C259" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="D259" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E259" s="5" t="s">
         <v>482</v>
-      </c>
-      <c r="D259" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E259" s="5" t="s">
-        <v>483</v>
       </c>
       <c r="F259" s="16">
         <v>44</v>
@@ -10988,13 +10999,13 @@
         <v>43626</v>
       </c>
       <c r="C260" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D260" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="D260" s="16" t="s">
+      <c r="E260" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="E260" s="5" t="s">
-        <v>391</v>
       </c>
       <c r="F260" s="16">
         <v>44</v>
@@ -11011,13 +11022,13 @@
         <v>43626</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D261" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F261" s="16">
         <v>44</v>
@@ -11034,13 +11045,13 @@
         <v>43626</v>
       </c>
       <c r="C262" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="D262" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E262" s="5" t="s">
         <v>470</v>
-      </c>
-      <c r="D262" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E262" s="5" t="s">
-        <v>471</v>
       </c>
       <c r="F262" s="16">
         <v>44</v>
@@ -11057,13 +11068,13 @@
         <v>43626</v>
       </c>
       <c r="C263" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="D263" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E263" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="D263" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E263" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="F263" s="16">
         <v>55</v>
@@ -11080,13 +11091,13 @@
         <v>43627</v>
       </c>
       <c r="C264" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="D264" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E264" s="5" t="s">
         <v>468</v>
-      </c>
-      <c r="D264" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E264" s="5" t="s">
-        <v>469</v>
       </c>
       <c r="F264" s="16">
         <v>44</v>
@@ -11103,13 +11114,13 @@
         <v>43628</v>
       </c>
       <c r="C265" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="D265" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E265" s="5" t="s">
         <v>462</v>
-      </c>
-      <c r="D265" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E265" s="5" t="s">
-        <v>463</v>
       </c>
       <c r="F265" s="16">
         <v>44</v>
@@ -11126,13 +11137,13 @@
         <v>43628</v>
       </c>
       <c r="C266" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="D266" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E266" s="5" t="s">
         <v>464</v>
-      </c>
-      <c r="D266" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E266" s="5" t="s">
-        <v>465</v>
       </c>
       <c r="F266" s="16">
         <v>55</v>
@@ -11149,13 +11160,13 @@
         <v>43628</v>
       </c>
       <c r="C267" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="D267" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E267" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="D267" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E267" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="F267" s="16">
         <v>44</v>
@@ -11172,13 +11183,13 @@
         <v>43629</v>
       </c>
       <c r="C268" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="D268" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E268" s="5" t="s">
         <v>486</v>
-      </c>
-      <c r="D268" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E268" s="5" t="s">
-        <v>487</v>
       </c>
       <c r="F268" s="16">
         <v>44</v>
@@ -11195,13 +11206,13 @@
         <v>43632</v>
       </c>
       <c r="C269" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="D269" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E269" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="D269" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E269" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="F269" s="16">
         <v>44</v>
@@ -11218,13 +11229,13 @@
         <v>43632</v>
       </c>
       <c r="C270" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="D270" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E270" s="5" t="s">
         <v>411</v>
-      </c>
-      <c r="D270" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E270" s="5" t="s">
-        <v>412</v>
       </c>
       <c r="F270" s="16">
         <v>44</v>
@@ -11241,13 +11252,13 @@
         <v>43634</v>
       </c>
       <c r="C271" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="D271" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E271" s="5" t="s">
         <v>460</v>
-      </c>
-      <c r="D271" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E271" s="5" t="s">
-        <v>461</v>
       </c>
       <c r="F271" s="16">
         <v>55</v>
@@ -11264,13 +11275,13 @@
         <v>43635</v>
       </c>
       <c r="C272" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="D272" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E272" s="5" t="s">
         <v>441</v>
-      </c>
-      <c r="D272" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E272" s="5" t="s">
-        <v>442</v>
       </c>
       <c r="F272" s="16">
         <v>44</v>
@@ -11287,13 +11298,13 @@
         <v>43636</v>
       </c>
       <c r="C273" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="D273" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E273" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="D273" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E273" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="F273" s="16">
         <v>55</v>
@@ -11310,13 +11321,13 @@
         <v>43636</v>
       </c>
       <c r="C274" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="D274" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E274" s="5" t="s">
         <v>441</v>
-      </c>
-      <c r="D274" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E274" s="5" t="s">
-        <v>442</v>
       </c>
       <c r="F274" s="16">
         <v>44</v>
@@ -11333,13 +11344,13 @@
         <v>43636</v>
       </c>
       <c r="C275" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="D275" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E275" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="D275" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E275" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="F275" s="16">
         <v>55</v>
@@ -11356,13 +11367,13 @@
         <v>43637</v>
       </c>
       <c r="C276" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="D276" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E276" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="D276" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E276" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="F276" s="16">
         <v>44</v>
@@ -11379,13 +11390,13 @@
         <v>43638</v>
       </c>
       <c r="C277" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="D277" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E277" s="5" t="s">
         <v>441</v>
-      </c>
-      <c r="D277" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E277" s="5" t="s">
-        <v>442</v>
       </c>
       <c r="F277" s="16">
         <v>44</v>
@@ -11402,13 +11413,13 @@
         <v>43638</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D278" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F278" s="16">
         <v>44</v>
@@ -11425,13 +11436,13 @@
         <v>43638</v>
       </c>
       <c r="C279" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="D279" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E279" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="D279" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E279" s="5" t="s">
-        <v>426</v>
       </c>
       <c r="F279" s="16">
         <v>55</v>
@@ -11448,13 +11459,13 @@
         <v>43638</v>
       </c>
       <c r="C280" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="D280" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E280" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="D280" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E280" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="F280" s="16">
         <v>44</v>
@@ -11471,13 +11482,13 @@
         <v>43639</v>
       </c>
       <c r="C281" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="D281" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E281" s="5" t="s">
         <v>447</v>
-      </c>
-      <c r="D281" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E281" s="5" t="s">
-        <v>448</v>
       </c>
       <c r="F281" s="16">
         <v>44</v>
@@ -11494,13 +11505,13 @@
         <v>43641</v>
       </c>
       <c r="C282" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="D282" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E282" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="D282" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E282" s="5" t="s">
-        <v>426</v>
       </c>
       <c r="F282" s="16">
         <v>44</v>
@@ -11517,13 +11528,13 @@
         <v>43642</v>
       </c>
       <c r="C283" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="D283" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E283" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="D283" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E283" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="F283" s="16">
         <v>44</v>
@@ -11540,13 +11551,13 @@
         <v>43644</v>
       </c>
       <c r="C284" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="D284" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E284" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="D284" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E284" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="F284" s="16">
         <v>55</v>
@@ -11563,13 +11574,13 @@
         <v>43645</v>
       </c>
       <c r="C285" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D285" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E285" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="D285" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E285" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="F285" s="16">
         <v>55</v>
@@ -11586,13 +11597,13 @@
         <v>43645</v>
       </c>
       <c r="C286" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="D286" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E286" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="D286" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E286" s="5" t="s">
-        <v>491</v>
       </c>
       <c r="F286" s="16">
         <v>44</v>
@@ -11606,12 +11617,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J14:K14"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J14:K14"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11619,10 +11630,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -11637,7 +11648,7 @@
     <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="30" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -11938,106 +11949,106 @@
     </row>
     <row r="24" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>321</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C32" s="14"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C33" s="14"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C34" s="14"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C35" s="14"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C36" s="14"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C37" s="14"/>
     </row>
     <row r="39" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>330</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C42" s="13"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C43" s="13"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C44" s="13"/>
     </row>
@@ -12051,10 +12062,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -12067,37 +12078,37 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="L2" s="15" t="s">
         <v>344</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
@@ -12105,7 +12116,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="16">
@@ -12122,7 +12133,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K3" s="17"/>
       <c r="L3" s="18"/>
@@ -12132,7 +12143,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="16">
@@ -12149,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="18"/>
@@ -12159,7 +12170,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="16">
@@ -12176,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="18"/>
@@ -12186,7 +12197,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="16">
@@ -12203,7 +12214,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="18"/>
@@ -12213,7 +12224,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="16">
@@ -12230,7 +12241,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="18"/>
@@ -12240,7 +12251,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="16">
@@ -12257,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K8" s="17"/>
       <c r="L8" s="18"/>
@@ -12267,7 +12278,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="16">
@@ -12284,7 +12295,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K9" s="17"/>
       <c r="L9" s="18"/>
@@ -12294,7 +12305,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="16">
@@ -12311,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K10" s="17"/>
       <c r="L10" s="18"/>
@@ -12321,7 +12332,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="16">
@@ -12338,7 +12349,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K11" s="17"/>
       <c r="L11" s="18"/>
@@ -12348,7 +12359,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="16">
@@ -12365,7 +12376,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="18"/>
@@ -12373,50 +12384,50 @@
     <row r="13" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="F14" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G14" s="32"/>
       <c r="J14" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
     </row>
     <row r="15" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="F15" s="15" t="s">
+      <c r="G15" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>349</v>
-      </c>
       <c r="J15" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L15" s="33"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D16" s="20">
         <v>78000</v>
@@ -12428,17 +12439,17 @@
         <v>0</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K16" s="34"/>
       <c r="L16" s="35"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D17" s="20">
         <v>156000</v>
@@ -12452,10 +12463,10 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D18" s="20">
         <v>560000</v>
@@ -12467,17 +12478,17 @@
         <v>0.04</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K18" s="34"/>
       <c r="L18" s="35"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D19" s="20">
         <v>255600</v>
@@ -12489,17 +12500,17 @@
         <v>0.06</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K19" s="36"/>
       <c r="L19" s="37"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D20" s="20">
         <v>121600</v>
@@ -12522,14 +12533,14 @@
     <row r="22" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="2:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
       <c r="H23" s="32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
@@ -12540,22 +12551,22 @@
     </row>
     <row r="24" spans="2:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B24" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>352</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>353</v>
       </c>
       <c r="I24" s="20">
         <v>0</v>
@@ -12578,22 +12589,22 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="H25" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="I25" s="20">
         <v>0</v>
